--- a/resources/ResourceFile_Depression_ap_th.xlsx
+++ b/resources/ResourceFile_Depression_ap_th.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6831C3A8-B54D-40E5-AA0D-00D818DD3983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D85DE-FFF7-454C-BA27-09EC1CBF6547}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>rr_depr_prev_epis</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>We assume that talking therapy happens as part of diagnosis</t>
+  </si>
+  <si>
+    <t>init_pr_ever_self_harmed_if_ever_depr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consistent with rate of incident self harm </t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -802,207 +808,207 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <v>1.5</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>50</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="5">
-        <v>30</v>
-      </c>
-      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <v>0.2</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="62" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="D30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B31" s="5">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B33" s="11">
         <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.75</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>47</v>
@@ -1010,10 +1016,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>47</v>
@@ -1021,12 +1027,23 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B36" s="5">
         <v>267</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
